--- a/doc/tasks.xlsx
+++ b/doc/tasks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>Add first nearest neighbor analysis</t>
   </si>
@@ -33,12 +33,6 @@
     <t>rdf_mda.py</t>
   </si>
   <si>
-    <t>PTMA first nearest nieghbors</t>
-  </si>
-  <si>
-    <t>BDT-TPD first nearest nieghbors</t>
-  </si>
-  <si>
     <t>translate.py</t>
   </si>
   <si>
@@ -60,24 +54,12 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>final debug</t>
-  </si>
-  <si>
     <t>initial scripts writen</t>
   </si>
   <si>
     <t>need to start</t>
   </si>
   <si>
-    <t>make_input.py, run_input.py, get_output.py</t>
-  </si>
-  <si>
-    <t>add gaussian torsional calculations</t>
-  </si>
-  <si>
-    <t>T-P torsion</t>
-  </si>
-  <si>
     <t>produce NWCHEM/gaussian input files of each molecule</t>
   </si>
   <si>
@@ -97,6 +79,75 @@
   </si>
   <si>
     <t>Vij</t>
+  </si>
+  <si>
+    <t>dihdist.py</t>
+  </si>
+  <si>
+    <t>Make dependent on mdanalysis to improve speed and read dcd files</t>
+  </si>
+  <si>
+    <t>Get dihedral distributions for OPV materials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fit_tor.py </t>
+  </si>
+  <si>
+    <t>Fit fourier sieries to entire PES</t>
+  </si>
+  <si>
+    <t>Fourier series for chainlength study</t>
+  </si>
+  <si>
+    <t>Fit OPLSAA dihedral potential</t>
+  </si>
+  <si>
+    <t>BDT-TPD/PTB-X torisonal potentials for MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coursegrain.py </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add eric's course graining scheme </t>
+  </si>
+  <si>
+    <t>produce course gain input files</t>
+  </si>
+  <si>
+    <t>place atoms on course grain model to do atomisic MD/QM</t>
+  </si>
+  <si>
+    <t>Calculate electromic properties from a BDT-TPD course grained model</t>
+  </si>
+  <si>
+    <t>"grow" ploymer chains rather than replicate</t>
+  </si>
+  <si>
+    <t>translate from mdtools (fortran)</t>
+  </si>
+  <si>
+    <t>replacte.py</t>
+  </si>
+  <si>
+    <t>Add molecules onto a surface</t>
+  </si>
+  <si>
+    <t>PTMA first nearest nieghbors, BDT-TPD first nearest nieghbors</t>
+  </si>
+  <si>
+    <t>polymerize.py</t>
+  </si>
+  <si>
+    <t>Add HOOMD input/output file read in</t>
+  </si>
+  <si>
+    <t>facilitate interactions with eric's stuff</t>
+  </si>
+  <si>
+    <t>builder.py</t>
+  </si>
+  <si>
+    <t>produce new cply files with ESP charges</t>
   </si>
 </sst>
 </file>
@@ -150,8 +201,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -169,17 +240,37 @@
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -509,38 +600,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:H13"/>
+  <dimension ref="C1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="4" max="4" width="41.6640625" customWidth="1"/>
     <col min="5" max="5" width="60.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="3:8">
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="3:8">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="3" spans="3:8">
-      <c r="C3" t="s">
-        <v>7</v>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8">
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
         <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="3:8">
@@ -554,86 +696,160 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="3:8">
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="3:8">
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="3:8">
       <c r="C9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" t="s">
-        <v>13</v>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="3:8">
       <c r="C11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8">
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="3:8">
       <c r="C13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="C1:H15">
+    <sortCondition ref="C1:C15"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/doc/tasks.xlsx
+++ b/doc/tasks.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Streamm" sheetId="1" r:id="rId1"/>
+    <sheet name="OPV" sheetId="2" r:id="rId2"/>
+    <sheet name="ORB" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
   <si>
     <t>Add first nearest neighbor analysis</t>
   </si>
@@ -148,13 +150,70 @@
   </si>
   <si>
     <t>produce new cply files with ESP charges</t>
+  </si>
+  <si>
+    <t>Crosslinks during replication</t>
+  </si>
+  <si>
+    <t>replacte.py, builder.py</t>
+  </si>
+  <si>
+    <t>Crosslinked PTMA</t>
+  </si>
+  <si>
+    <t>Finish PTB runs</t>
+  </si>
+  <si>
+    <t>running</t>
+  </si>
+  <si>
+    <t>PCE10</t>
+  </si>
+  <si>
+    <t>subtasks</t>
+  </si>
+  <si>
+    <t>New CPLY files</t>
+  </si>
+  <si>
+    <t>not started</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Pull individual chains</t>
+  </si>
+  <si>
+    <t>coding task #</t>
+  </si>
+  <si>
+    <t>g_V</t>
+  </si>
+  <si>
+    <t>PTMA and TEMPO-X densities of states</t>
+  </si>
+  <si>
+    <t>Cross linking</t>
+  </si>
+  <si>
+    <t>Solvent in films</t>
+  </si>
+  <si>
+    <t>Electrolyte, anions, TEMPO cations</t>
+  </si>
+  <si>
+    <t>TEMPO cations, use replicate to produce input files</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -183,6 +242,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -201,7 +267,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -233,14 +299,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -256,6 +337,13 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -271,6 +359,13 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -600,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:H14"/>
+  <dimension ref="B1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -614,7 +709,10 @@
     <col min="7" max="7" width="27.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8">
+    <row r="1" spans="2:8">
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
@@ -634,7 +732,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="3:8">
+    <row r="2" spans="2:8">
+      <c r="B2">
+        <v>1</v>
+      </c>
       <c r="C2">
         <v>1</v>
       </c>
@@ -651,7 +752,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="3:8">
+    <row r="3" spans="2:8">
+      <c r="B3">
+        <v>2</v>
+      </c>
       <c r="C3">
         <v>1</v>
       </c>
@@ -668,7 +772,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="3:8">
+    <row r="4" spans="2:8">
+      <c r="B4">
+        <v>3</v>
+      </c>
       <c r="C4">
         <v>2</v>
       </c>
@@ -685,7 +792,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="3:8">
+    <row r="5" spans="2:8">
+      <c r="B5">
+        <v>4</v>
+      </c>
       <c r="C5">
         <v>3</v>
       </c>
@@ -702,7 +812,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="3:8">
+    <row r="6" spans="2:8">
+      <c r="B6">
+        <v>5</v>
+      </c>
       <c r="C6">
         <v>3</v>
       </c>
@@ -719,7 +832,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="3:8">
+    <row r="7" spans="2:8">
+      <c r="B7">
+        <v>6</v>
+      </c>
       <c r="C7">
         <v>3</v>
       </c>
@@ -733,7 +849,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="3:8">
+    <row r="8" spans="2:8">
+      <c r="B8">
+        <v>7</v>
+      </c>
       <c r="C8">
         <v>4</v>
       </c>
@@ -750,7 +869,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="3:8">
+    <row r="9" spans="2:8">
+      <c r="B9">
+        <v>8</v>
+      </c>
       <c r="C9">
         <v>4</v>
       </c>
@@ -767,7 +889,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="3:8">
+    <row r="10" spans="2:8">
+      <c r="B10">
+        <v>9</v>
+      </c>
       <c r="C10">
         <v>5</v>
       </c>
@@ -784,7 +909,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="3:8">
+    <row r="11" spans="2:8">
+      <c r="B11">
+        <v>10</v>
+      </c>
       <c r="C11">
         <v>5</v>
       </c>
@@ -801,7 +929,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="3:8">
+    <row r="12" spans="2:8">
+      <c r="B12">
+        <v>11</v>
+      </c>
       <c r="C12">
         <v>5</v>
       </c>
@@ -815,7 +946,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="3:8">
+    <row r="13" spans="2:8">
+      <c r="B13">
+        <v>12</v>
+      </c>
       <c r="C13">
         <v>5</v>
       </c>
@@ -829,7 +963,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="3:8">
+    <row r="14" spans="2:8">
+      <c r="B14">
+        <v>13</v>
+      </c>
       <c r="C14">
         <v>5</v>
       </c>
@@ -843,6 +980,26 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -858,4 +1015,180 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>